--- a/2021/Santa Fe Data Platform User Group - Feb Virtual Meeting/Demo/Source to Target Mapping.xlsx
+++ b/2021/Santa Fe Data Platform User Group - Feb Virtual Meeting/Demo/Source to Target Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Community\_Presentations\Regular Sessions\BIML-UP!! How I use BIML to speed up SSIS development\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2438D328-5D21-4C70-8424-B4B7552E1D30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D57CE66-21EF-4778-8006-758B5F7D4014}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sources" sheetId="12" r:id="rId1"/>
@@ -1526,11 +1526,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86534BF3-B291-42C4-8EAD-EEE345992142}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,7 +1599,7 @@
         <v>222</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
@@ -1864,7 +1864,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3157,11 +3157,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2BB8773-FB32-4A1D-B18E-BFD950975F38}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
